--- a/Experiment Data/Experiment Data.xlsx
+++ b/Experiment Data/Experiment Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,6 @@
     <sheet name="PD7" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="PD8" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="PD9" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -134,6 +133,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Artifact Type – Some </t>
     </r>
@@ -144,6 +144,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Possible Variations in the Ground Truth Domain Model</t>
     </r>
@@ -158,6 +159,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Artifact Type – </t>
     </r>
@@ -168,6 +170,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Extracted Domain Model using our Proposed Tool</t>
     </r>
@@ -2789,6 +2792,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2810,12 +2814,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2823,6 +2829,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2949,7 +2956,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3005,7 +3012,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3165,15 +3172,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3260,9 +3267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3092040</xdr:colOff>
+      <xdr:colOff>3091680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3276,7 +3283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266760" y="2024640"/>
-          <a:ext cx="5843160" cy="4431240"/>
+          <a:ext cx="5843520" cy="4430880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3297,9 +3304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2143800</xdr:colOff>
+      <xdr:colOff>2143440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,8 +3319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6785280" y="1989000"/>
-          <a:ext cx="5816880" cy="4523760"/>
+          <a:off x="6786000" y="1989000"/>
+          <a:ext cx="5816520" cy="4523400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3334,9 +3341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>441000</xdr:colOff>
+      <xdr:colOff>440640</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3349,8 +3356,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952920" y="7412760"/>
-          <a:ext cx="8456760" cy="4405680"/>
+          <a:off x="953640" y="7412760"/>
+          <a:ext cx="8456040" cy="4405320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3376,9 +3383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2568240</xdr:colOff>
+      <xdr:colOff>2567880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3392,7 +3399,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="124560" y="1952280"/>
-          <a:ext cx="5393160" cy="4624560"/>
+          <a:ext cx="5393520" cy="4624200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3413,9 +3420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2716920</xdr:colOff>
+      <xdr:colOff>2716560</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3428,8 +3435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5814000" y="1893600"/>
-          <a:ext cx="7292520" cy="4732920"/>
+          <a:off x="5814720" y="1893600"/>
+          <a:ext cx="7292160" cy="4732560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3450,9 +3457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1100520</xdr:colOff>
+      <xdr:colOff>1100160</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3465,8 +3472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181880" y="7506000"/>
-          <a:ext cx="8818560" cy="4319280"/>
+          <a:off x="1182600" y="7506000"/>
+          <a:ext cx="8818200" cy="4318920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3492,9 +3499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3071880</xdr:colOff>
+      <xdr:colOff>3071520</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3507,8 +3514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1283760" y="6219000"/>
-          <a:ext cx="4737600" cy="5167800"/>
+          <a:off x="1284480" y="6219000"/>
+          <a:ext cx="4737240" cy="5167440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3529,9 +3536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3080880</xdr:colOff>
+      <xdr:colOff>3080520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3544,8 +3551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="519480" y="1729800"/>
-          <a:ext cx="5510880" cy="3124440"/>
+          <a:off x="520200" y="1729800"/>
+          <a:ext cx="5510520" cy="3124080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3566,9 +3573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1353240</xdr:colOff>
+      <xdr:colOff>1352880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3581,8 +3588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7196040" y="1512000"/>
-          <a:ext cx="4546800" cy="3446280"/>
+          <a:off x="7196760" y="1512000"/>
+          <a:ext cx="4546440" cy="3445920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3608,9 +3615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1176120</xdr:colOff>
+      <xdr:colOff>1175760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3623,8 +3630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6078960" y="2026080"/>
-          <a:ext cx="5486760" cy="4486680"/>
+          <a:off x="6079680" y="2026080"/>
+          <a:ext cx="5486400" cy="4486320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3645,9 +3652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>908640</xdr:colOff>
+      <xdr:colOff>908280</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3660,8 +3667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1198440" y="7621200"/>
-          <a:ext cx="7315920" cy="4108680"/>
+          <a:off x="1199160" y="7621200"/>
+          <a:ext cx="7315560" cy="4108320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3682,9 +3689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2792520</xdr:colOff>
+      <xdr:colOff>2792160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3697,8 +3704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612000" y="1998720"/>
-          <a:ext cx="5130000" cy="4513320"/>
+          <a:off x="612720" y="1998720"/>
+          <a:ext cx="5129640" cy="4512960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3724,9 +3731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:colOff>2005920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3739,8 +3746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="599400" y="1575360"/>
-          <a:ext cx="4356360" cy="2382840"/>
+          <a:off x="600120" y="1575360"/>
+          <a:ext cx="4356000" cy="2382480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3761,9 +3768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
+      <xdr:colOff>745920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3776,8 +3783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5315400" y="1554480"/>
-          <a:ext cx="5820480" cy="2220120"/>
+          <a:off x="5316120" y="1554480"/>
+          <a:ext cx="5820120" cy="2219760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3798,9 +3805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2024640</xdr:colOff>
+      <xdr:colOff>2024280</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3813,8 +3820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1328400" y="5120280"/>
-          <a:ext cx="3645720" cy="2654280"/>
+          <a:off x="1329120" y="5120280"/>
+          <a:ext cx="3645360" cy="2653920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3840,9 +3847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>804240</xdr:colOff>
+      <xdr:colOff>803880</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3855,8 +3862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1625760" y="7839720"/>
-          <a:ext cx="6784200" cy="3505320"/>
+          <a:off x="1626480" y="7839720"/>
+          <a:ext cx="6783840" cy="3504960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3877,9 +3884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2809800</xdr:colOff>
+      <xdr:colOff>2809440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3893,7 +3900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163800" y="2363400"/>
-          <a:ext cx="5595480" cy="3911400"/>
+          <a:ext cx="5595840" cy="3911040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3914,9 +3921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
+      <xdr:colOff>786960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3929,8 +3936,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6441120" y="2271240"/>
-          <a:ext cx="4735800" cy="3950640"/>
+          <a:off x="6441840" y="2271240"/>
+          <a:ext cx="4735440" cy="3950280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3956,9 +3963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>231120</xdr:colOff>
+      <xdr:colOff>230760</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3971,8 +3978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1121760" y="7601760"/>
-          <a:ext cx="6715080" cy="4125240"/>
+          <a:off x="1122480" y="7601760"/>
+          <a:ext cx="6714720" cy="4124880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,9 +4000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1241280</xdr:colOff>
+      <xdr:colOff>1240920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4008,8 +4015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7230600" y="2382120"/>
-          <a:ext cx="7870680" cy="3996720"/>
+          <a:off x="7231320" y="2382120"/>
+          <a:ext cx="7870320" cy="3996360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4030,9 +4037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3910320</xdr:colOff>
+      <xdr:colOff>3909960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4046,7 +4053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="460440" y="2163240"/>
-          <a:ext cx="6399360" cy="4426560"/>
+          <a:ext cx="6399720" cy="4426200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4072,9 +4079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4207320</xdr:colOff>
+      <xdr:colOff>4206960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4087,8 +4094,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1793520" y="2147400"/>
-          <a:ext cx="5363280" cy="4455000"/>
+          <a:off x="1794240" y="2147400"/>
+          <a:ext cx="5362920" cy="4454640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4109,9 +4116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>844920</xdr:colOff>
+      <xdr:colOff>844560</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4124,8 +4131,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1636200" y="8003880"/>
-          <a:ext cx="8108640" cy="3316680"/>
+          <a:off x="1636920" y="8003880"/>
+          <a:ext cx="8108280" cy="3316320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4151,9 +4158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4167720</xdr:colOff>
+      <xdr:colOff>4167360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4166,8 +4173,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1329120" y="2451600"/>
-          <a:ext cx="5788080" cy="2482920"/>
+          <a:off x="1329840" y="2451600"/>
+          <a:ext cx="5787720" cy="2482560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4188,9 +4195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2992320</xdr:colOff>
+      <xdr:colOff>2991960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4203,8 +4210,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1794240" y="6350400"/>
-          <a:ext cx="4147560" cy="2912760"/>
+          <a:off x="1794960" y="6350400"/>
+          <a:ext cx="4147200" cy="2912400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4226,13 +4233,13 @@
   </sheetPr>
   <dimension ref="A7:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.37"/>
   </cols>
   <sheetData>
@@ -8412,7 +8419,7 @@
       <selection pane="topLeft" activeCell="E127" activeCellId="0" sqref="E127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -10554,384 +10561,12 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D13:L30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.942857142857143</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.942857142857143</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.923076923076923</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.804878048780488</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.769230769230769</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.793103448275862</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0.888888888888889</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
-        <v>0.83955223880597</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.829145728643216</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.95959595959596</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.863874345549738</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0.793650793650794</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.854430379746836</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0.821428571428572</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>0.873015873015873</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>0.895522388059702</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
-        <v>0.915113304093567</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.908874834656085</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.949352548036758</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0.923511904761905</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.880678258145363</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0.886309523809524</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0.94905303030303</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0.865206339712919</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0.883800287356322</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
-        <v>0.790151515151515</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.774264705882353</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.856428571428571</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.798163082437276</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0.807426948051948</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0.813541666666667</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0.832827260458839</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0.834375</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="n">
-        <v>0.812105986192268</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0.797314265489112</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.872094467771159</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.819813446675753</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.793593187566402</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0.820471317181844</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0.835907484110548</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>0.838882287485132</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>0.843538128338584</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
-        <v>0.907142857142857</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.81468253968254</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0.862703634085213</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0.947916666666667</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0.865625</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>0.923717948717949</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
-        <v>0.707638888888889</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.669041783380019</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.773809523809524</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0.625099206349206</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0.8359375</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.782291666666667</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>0.800595238095238</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
-        <v>0.73269223750958</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0.687572590011614</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.78021978021978</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0.659408385447202</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.853618421052632</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0.794196428571429</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0.820754395529508</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>0.857638888888889</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
-        <v>0.813988095238095</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0.774242424242424</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0.792582417582418</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0.813541666666667</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>0.902083333333333</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="n">
-        <v>0.494318181818182</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0.593178104575163</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.563095238095238</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0.47531746031746</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0.688541666666667</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="n">
-        <v>0.530556023555085</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0.614439786187819</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.592544710191769</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0.514969784215782</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0.796052631578947</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0.702450561825562</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>0.784868845657385</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>0.857638888888889</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -10942,11 +10577,11 @@
   </sheetPr>
   <dimension ref="B2:H362"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -14854,7 +14489,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -14874,7 +14509,7 @@
       <selection pane="topLeft" activeCell="D235" activeCellId="0" sqref="D235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -18025,7 +17660,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -18045,7 +17680,7 @@
       <selection pane="topLeft" activeCell="E190" activeCellId="0" sqref="E190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -20202,7 +19837,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -20222,7 +19857,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -25076,7 +24711,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -25096,7 +24731,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -26494,7 +26129,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -26514,7 +26149,7 @@
       <selection pane="topLeft" activeCell="I148" activeCellId="0" sqref="I148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -29143,7 +28778,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -29163,7 +28798,7 @@
       <selection pane="topLeft" activeCell="G235" activeCellId="0" sqref="G235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -31652,7 +31287,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -31672,7 +31307,7 @@
       <selection pane="topLeft" activeCell="G240" activeCellId="0" sqref="G240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -34765,7 +34400,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
